--- a/ТерВерСтат _ДЗ_Урок5.xlsx
+++ b/ТерВерСтат _ДЗ_Урок5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="593"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Исходные данные:</t>
   </si>
@@ -39,40 +39,393 @@
     <t xml:space="preserve">Ответ: </t>
   </si>
   <si>
-    <t xml:space="preserve">Решение и Ответ: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Решение и Ответы: </t>
   </si>
   <si>
     <t xml:space="preserve">Когда используется критерий Стьюдента, а когда Z –критерий? </t>
   </si>
   <si>
-    <t xml:space="preserve"> для  проведения Критерий Стьюдента, необходимо, чтобы данные выборок имели распределение близкое к нормальному</t>
-  </si>
-  <si>
-    <t>Его можно использовать для проверки гипотез, в которых z-критерий следует нормальному распределению.</t>
-  </si>
-  <si>
     <t>Проведите тест гипотезы. Утверждается, что шарики для подшипников, изготовленные автоматическим станком, имеют средний диаметр 17 мм. Используя односторонний критерий с α=0,05, проверить эту гипотезу, если в выборке из n=100 шариков средний диаметр оказался равным 17.5 мм, а дисперсия известна и равна 4 кв. мм.</t>
   </si>
   <si>
-    <t>3.Проведите тест гипотезы. Продавец утверждает, что средний вес пачки печенья составляет 200 г. Из партии извлечена выборка из 10 пачек. Вес каждой пачки составляет: 202, 203, 199, 197, 195, 201, 200, 204, 194, 190. Известно, что их веса распределены нормально. Верно ли утверждение продавца, если учитывать, что доверительная вероятность равна 99%? (Провести двусторонний тест.) Задачу 4 решать с помощью функции.</t>
-  </si>
-  <si>
-    <t>4.Есть ли статистически значимые различия в росте дочерей? Рост матерей 172, 177, 158, 170, 178,175, 164, 160, 169 Рост взрослых дочерей: 173, 175, 162, 174, 175, 168, 155, 170, 160</t>
-  </si>
-  <si>
-    <t>Дамир, здравствуйте!
-Большая просьба пока не проверять данную домашнюю работу.
-До завтра внесу все решения, сори</t>
+    <t xml:space="preserve">Z-критерий можно использовать для проверки гипотез, в которых:
+- Распределение должно быть нормальным.
+- Известна дисперсия генеральной совокупности для всех выборок.
+- Выборка имеет размерность более 30 элементов.
+z-критерий требует знания стандартных отклонений. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> для  проведения Критерий Стьюдента, необходимо, чтобы данные выборок имели распределение близкое к нормальному
+— данные распределяются по закону нормального распределения; 
+— данные  количественные; 
+— выборки две независимые между собой, этот аспект стоит учитывать для выбора вида т-критерия Стьюдента, так как для парных выборок существует свой парный т-критерий (paired t-test).</t>
+  </si>
+  <si>
+    <t>M(X)</t>
+  </si>
+  <si>
+    <t>матем.ожидание</t>
+  </si>
+  <si>
+    <t>средний диаметр в выборке</t>
+  </si>
+  <si>
+    <t>размер выборки</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>M(X) = 17</t>
+  </si>
+  <si>
+    <t>M(X) &gt; 17</t>
+  </si>
+  <si>
+    <t>µ</t>
+  </si>
+  <si>
+    <t>уровни значимости (вероятность отвергнуть верную нулевую гипотезу) α = 0.05</t>
+  </si>
+  <si>
+    <t>Выбираем критерий Стьюдента, как статистический критерий для одной выборки (t - критерий)</t>
+  </si>
+  <si>
+    <t>1-α</t>
+  </si>
+  <si>
+    <t>1-α/2</t>
+  </si>
+  <si>
+    <t>Уровень доверия - двусторонняя альтернатива</t>
+  </si>
+  <si>
+    <t>Уровень доверия - односторонняя альтернатива</t>
+  </si>
+  <si>
+    <r>
+      <t>Гипотиза H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - шарики имеют средний диаметр 17 мм</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Гипотиза H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - альтернативная гипотеза - т.к. средний диаметр в выборке быльше мат.ожидания, то предполагаем, что это односторонняя альтернатива справа</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Выборочное стандартное отклонение </t>
+  </si>
+  <si>
+    <t>s = √D</t>
+  </si>
+  <si>
+    <t>Наблюдаемое значение статистики критерия tнабл= (µ - M) / s) * √n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Решение: </t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>набл</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>крит</t>
+    </r>
+  </si>
+  <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>Наблюдаемое значение (по модулю) больше критического значения статистики – попадаем в критическую область, следовательно, нулевую гипотезу необходимо отвергнуть.</t>
+  </si>
+  <si>
+    <t>Число степеней свободы (одна выборка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Критическое значение статистики критерия tкрит (табличная величина α = 0.05) </t>
+  </si>
+  <si>
+    <t>доверительная вероятность</t>
+  </si>
+  <si>
+    <t>M(X) = 200</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M(X) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 200</t>
+    </r>
+  </si>
+  <si>
+    <t>уровни значимости (вероятность отвергнуть верную нулевую гипотезу)</t>
+  </si>
+  <si>
+    <t>3.Проведите тест гипотезы. Продавец утверждает, что средний вес пачки печенья составляет 200 г. Из партии извлечена выборка из 10 пачек. Вес каждой пачки составляет: 202, 203, 199, 197, 195, 201, 200, 204, 194, 190. Известно, что их веса распределены нормально. Верно ли утверждение продавца, если учитывать, что доверительная вероятность равна 99%?
+(Провести двусторонний тест.)</t>
+  </si>
+  <si>
+    <t>Среднее значение</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение (в выборке)</t>
+  </si>
+  <si>
+    <t>Выбираем критерий Стьюдента, как статистический критерий для одной выборки (t - критерий), т.к. хоть и большая выборка (=100), но не знаем доли</t>
+  </si>
+  <si>
+    <r>
+      <t>Гипотиза H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - пачка весит 200 гр.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Гипотиза H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - альтернативная гипотеза -  вес пачки ≠ 200 и отклоняется в обе стороный (двусторонний тест)</t>
+    </r>
+  </si>
+  <si>
+    <t>Наблюдаемое значение (по модулю) меньше критического значения статистики – попадаем в основную область, следовательно, нулевую гипотезу необходимо отвергнуть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Есть ли статистически значимые различия в росте дочерей? 
+Рост матерей 172, 177, 158, 170, 178,175, 164, 160, 169 
+Рост взрослых дочерей: 173, 175, 162, 174, 175, 168, 155, 170, 160
+решать с помощью функции. </t>
+  </si>
+  <si>
+    <t>Наблюдаемое значение статистики критерия tнабл= (M-µ) / s) * √n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Критическое значение статистики критерия tкрит 
+(Я так и не умею пользоваться таблицами! Везде разная информация в интернете, и в презентации к лекции не указано как применять…) </t>
+  </si>
+  <si>
+    <t>Дисперсия выборки матерей</t>
+  </si>
+  <si>
+    <t>Дисперсия выборки дочерей</t>
+  </si>
+  <si>
+    <t>Отношение большей дисперсии выборки к меньшей дисперсии выборки составляет 54/ 52,2 = 1,0346 , что меньше 4. Это означает, что мы можем предположить, что дисперсии генеральной совокупности равны.</t>
+  </si>
+  <si>
+    <t>https://planetcalc.com/7857/?sampleA=172%20177%20158%20170%20178175%20164%20160%20169%20%0A&amp;sampleB=173%2C%20175%2C%20162%2C%20174%2C%20175%2C%20168%2C%20155%2C%20170%2C%20160</t>
+  </si>
+  <si>
+    <t>У меня не работает в Excel 2007 t-Test: Two-Sample Assassining Equal Variances, поэтому посчитаю в стороннем калькуляторе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уровень достоверности для двухфакторного теста значимости
+</t>
+  </si>
+  <si>
+    <t>93.4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее значение выборки A значительно больше среднего значения выборки B
+Уровень достоверности для одностороннего теста значимости
+</t>
+  </si>
+  <si>
+    <t>96.7 %</t>
+  </si>
+  <si>
+    <t>статистически значимые различия в росте дочерей</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,11 +438,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,13 +458,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -142,23 +526,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -169,27 +551,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -204,6 +607,51 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="4219575"/>
+          <a:ext cx="8515350" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,7 +909,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,114 +931,54 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="13" spans="2:4" ht="15" customHeight="1">
-      <c r="B13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="5" t="s">
+    <row r="2" spans="2:7" ht="26.25" customHeight="1">
+      <c r="B2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" ht="30.75" customHeight="1">
-      <c r="B21" s="13" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" ht="111" customHeight="1">
+      <c r="B6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="8" spans="2:7" ht="95.25" customHeight="1">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="23" spans="2:4" ht="42" customHeight="1">
-      <c r="B23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B13:D17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B2:D10"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -599,32 +987,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="9" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+    <row r="2" spans="2:7" ht="63.75" customHeight="1">
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="21" customHeight="1">
+    <row r="3" spans="2:7">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -632,61 +1022,202 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" ht="21" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" ht="21" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="4" spans="2:7">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" ht="18">
+      <c r="B13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="33.75" customHeight="1">
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30">
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(D10)</f>
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <f>1-$D$7</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <f>D8-1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="31.5">
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>1.9842169999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <f>((D9-D6)/D16)*SQRT(D8)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D6"/>
+  <mergeCells count="2">
+    <mergeCell ref="B23:D27"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -695,134 +1226,399 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:15" s="14" customFormat="1" ht="99.75" customHeight="1">
+      <c r="B2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="17">
+        <v>202</v>
+      </c>
+      <c r="G3" s="17">
+        <v>203</v>
+      </c>
+      <c r="H3" s="17">
+        <v>199</v>
+      </c>
+      <c r="I3" s="17">
+        <v>197</v>
+      </c>
+      <c r="J3" s="17">
+        <v>195</v>
+      </c>
+      <c r="K3" s="17">
+        <v>201</v>
+      </c>
+      <c r="L3" s="17">
+        <v>200</v>
+      </c>
+      <c r="M3" s="17">
+        <v>204</v>
+      </c>
+      <c r="N3" s="17">
+        <v>194</v>
+      </c>
+      <c r="O3" s="17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="17">
+        <v>202</v>
+      </c>
+      <c r="G4" s="17">
+        <v>203</v>
+      </c>
+      <c r="H4" s="17">
+        <v>199</v>
+      </c>
+      <c r="I4" s="17">
+        <v>197</v>
+      </c>
+      <c r="J4" s="17">
+        <v>195</v>
+      </c>
+      <c r="K4" s="17">
+        <v>201</v>
+      </c>
+      <c r="L4" s="17">
+        <v>200</v>
+      </c>
+      <c r="M4" s="17">
+        <v>204</v>
+      </c>
+      <c r="N4" s="17">
+        <v>194</v>
+      </c>
+      <c r="O4" s="17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="1"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>198.5</v>
+      </c>
+      <c r="G5">
+        <v>198.5</v>
+      </c>
+      <c r="H5">
+        <v>198.5</v>
+      </c>
+      <c r="I5">
+        <v>198.5</v>
+      </c>
+      <c r="J5">
+        <v>198.5</v>
+      </c>
+      <c r="K5">
+        <v>198.5</v>
+      </c>
+      <c r="L5">
+        <v>198.5</v>
+      </c>
+      <c r="M5">
+        <v>198.5</v>
+      </c>
+      <c r="N5">
+        <v>198.5</v>
+      </c>
+      <c r="O5">
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="F6">
+        <f>(F4-F5)^2</f>
+        <v>12.25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:O6" si="0">(G4-G5)^2</f>
+        <v>20.25</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>30.25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" ht="18">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="49.5">
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="45">
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(F4:O4)/COUNT(F4:O4)</f>
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="30">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <f>1-D6</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="1"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="18">
+        <f>D15/2</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" ht="33.75" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <f>VAR(F4:O4)</f>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="E17">
+        <f>SUM(F6:O6)/(COUNT(F6:O6)-1)</f>
+        <v>19.833333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <f>STDEV(F4:O4)</f>
+        <v>4.4534630719624619</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1"/>
+    <row r="20" spans="2:5" ht="16.5" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <f>1-D15/2</f>
+        <v>0.995</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <f>D7-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="91.5">
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <f>TINV(D15,D21)</f>
+        <v>3.2498355411274824</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="31.5">
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <f>((D5-D14)/D18)*SQRT(D7)</f>
+        <v>1.0651074037450896</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D6"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B26:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -830,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,103 +1640,214 @@
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+    <row r="2" spans="2:9" ht="21.75" customHeight="1">
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+    <row r="3" spans="2:9" ht="55.5" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="2.25" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" ht="9.75" hidden="1" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="G6">
+        <v>172</v>
+      </c>
+      <c r="I6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="G7">
+        <v>177</v>
+      </c>
+      <c r="I7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <f>VAR(G6:G14)</f>
+        <v>52.194444444445253</v>
+      </c>
+      <c r="G8">
+        <v>158</v>
+      </c>
+      <c r="I8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <f>VAR(I6:I14)</f>
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>170</v>
+      </c>
+      <c r="I9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="G10">
+        <v>178</v>
+      </c>
+      <c r="I10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" customHeight="1">
+      <c r="B11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23">
+        <f>D9/D8</f>
+        <v>1.0345928685470835</v>
+      </c>
+      <c r="G11">
+        <v>175</v>
+      </c>
+      <c r="I11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="G12">
+        <v>164</v>
+      </c>
+      <c r="I12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="G13">
+        <v>160</v>
+      </c>
+      <c r="I13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="G14">
+        <v>169</v>
+      </c>
+      <c r="I14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="24"/>
+    </row>
+    <row r="19" spans="2:4" ht="38.25" customHeight="1">
+      <c r="B19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="1" customFormat="1" ht="62.25" customHeight="1">
+      <c r="B20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="13" customFormat="1">
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D6"/>
-    <mergeCell ref="B12:E12"/>
+  <mergeCells count="5">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B11:C14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>